--- a/sequences/learning_blockA_fixed-middle-10_02.xlsx
+++ b/sequences/learning_blockA_fixed-middle-10_02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="learning" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -559,47 +559,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -609,28 +609,28 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -652,78 +652,78 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -745,42 +745,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -807,16 +807,16 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -838,78 +838,78 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>jacket</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>house</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>bed</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" t="n">
         <v>9</v>
       </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>11</v>
-      </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -931,42 +931,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>hand</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>house</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -993,16 +993,16 @@
         <v>6</v>
       </c>
       <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="n">
-        <v>8</v>
-      </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1024,78 +1024,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1117,52 +1117,52 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1172,23 +1172,23 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q8" t="n">
         <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1272,16 +1272,16 @@
         <v>9</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
         <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1303,22 +1303,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1368,13 +1368,13 @@
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1396,78 +1396,78 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>house</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q11" t="n">
         <v>11</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1489,52 +1489,52 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1544,23 +1544,23 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q12" t="n">
         <v>12</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1582,52 +1582,52 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1637,23 +1637,23 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1675,42 +1675,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1737,16 +1737,16 @@
         <v>14</v>
       </c>
       <c r="R14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T14" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1768,47 +1768,47 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1818,28 +1818,28 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1861,47 +1861,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1911,28 +1911,28 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1954,52 +1954,52 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>jacket</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>house</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2009,23 +2009,23 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
         <v>9</v>
       </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
       <c r="U17" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2047,52 +2047,52 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>jacket</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>house</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>bed</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>chair</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2102,23 +2102,23 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
       <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>19</v>
+      </c>
+      <c r="U18" t="n">
         <v>9</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2140,78 +2140,78 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>hand</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>hammer</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>6</v>
       </c>
       <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
         <v>2</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>8</v>
       </c>
-      <c r="T19" t="n">
-        <v>7</v>
-      </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2233,78 +2233,78 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>7</v>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2326,52 +2326,52 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>ball</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>chair</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>jacket</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>flower</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2381,23 +2381,23 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q21" t="n">
         <v>8</v>
       </c>
       <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="n">
         <v>4</v>
       </c>
-      <c r="S21" t="n">
-        <v>10</v>
-      </c>
-      <c r="T21" t="n">
-        <v>6</v>
-      </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2419,27 +2419,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>key</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2481,16 +2481,16 @@
         <v>9</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
         <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -2512,22 +2512,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2537,22 +2537,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2577,13 +2577,13 @@
         <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -2605,78 +2605,78 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>house</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q24" t="n">
         <v>11</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U24" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -2698,47 +2698,47 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2748,28 +2748,28 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q25" t="n">
         <v>12</v>
       </c>
       <c r="R25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -2791,42 +2791,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2853,16 +2853,16 @@
         <v>13</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -2884,52 +2884,52 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>key</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2939,23 +2939,23 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q27" t="n">
         <v>14</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -2977,42 +2977,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3039,16 +3039,16 @@
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S28" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -3070,78 +3070,78 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q29" t="n">
         <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -3163,42 +3163,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3225,16 +3225,16 @@
         <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T30" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -3256,42 +3256,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3318,16 +3318,16 @@
         <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -3349,42 +3349,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>hand</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>key</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3411,16 +3411,16 @@
         <v>6</v>
       </c>
       <c r="R32" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" t="n">
         <v>2</v>
       </c>
-      <c r="S32" t="n">
-        <v>8</v>
-      </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -3442,52 +3442,52 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>bread</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>house</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>bread</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3497,23 +3497,23 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q33" t="n">
         <v>7</v>
       </c>
       <c r="R33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" t="n">
         <v>9</v>
-      </c>
-      <c r="U33" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3535,78 +3535,78 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>key</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q34" t="n">
         <v>8</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -3628,42 +3628,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>bread</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>jacket</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bread</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>flower</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3690,16 +3690,16 @@
         <v>9</v>
       </c>
       <c r="R35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -3721,22 +3721,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3746,17 +3746,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3786,13 +3786,13 @@
         <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T36" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>house</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3876,16 +3876,16 @@
         <v>11</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T37" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="U37" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -3907,47 +3907,47 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3957,28 +3957,28 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q38" t="n">
         <v>12</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U38" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -4000,42 +4000,42 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4062,16 +4062,16 @@
         <v>13</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -4093,42 +4093,42 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4138,12 +4138,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4155,16 +4155,16 @@
         <v>14</v>
       </c>
       <c r="R40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -4186,47 +4186,47 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4236,28 +4236,28 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q41" t="n">
         <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S41" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -4279,52 +4279,52 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4334,23 +4334,23 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q42" t="n">
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -4372,52 +4372,52 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4427,23 +4427,23 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T43" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -4465,52 +4465,52 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>plane</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4520,23 +4520,23 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S44" t="n">
+        <v>6</v>
+      </c>
+      <c r="T44" t="n">
         <v>2</v>
       </c>
-      <c r="T44" t="n">
-        <v>29</v>
-      </c>
       <c r="U44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -4558,42 +4558,42 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>hand</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>hammer</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4620,16 +4620,16 @@
         <v>6</v>
       </c>
       <c r="R45" t="n">
+        <v>6</v>
+      </c>
+      <c r="S45" t="n">
         <v>2</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>8</v>
       </c>
-      <c r="T45" t="n">
-        <v>7</v>
-      </c>
       <c r="U45" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4651,78 +4651,78 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q46" t="n">
         <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4744,52 +4744,52 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>key</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4799,23 +4799,23 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q47" t="n">
         <v>8</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4837,27 +4837,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4867,48 +4867,48 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q48" t="n">
         <v>9</v>
       </c>
       <c r="R48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U48" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -4930,22 +4930,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4995,13 +4995,13 @@
         <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -5023,78 +5023,78 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>key</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q50" t="n">
         <v>11</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T50" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -5116,52 +5116,52 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -5171,23 +5171,23 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q51" t="n">
         <v>12</v>
       </c>
       <c r="R51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T51" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="U51" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -5209,42 +5209,42 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5271,16 +5271,16 @@
         <v>13</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="U52" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -5302,42 +5302,42 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -5364,16 +5364,16 @@
         <v>14</v>
       </c>
       <c r="R53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -5395,32 +5395,32 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5440,12 +5440,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -5457,16 +5457,16 @@
         <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S54" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T54" t="n">
         <v>4</v>
       </c>
       <c r="U54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -5488,42 +5488,42 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5550,16 +5550,16 @@
         <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5616,43 +5616,43 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q56" t="n">
         <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T56" t="n">
         <v>6</v>
       </c>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -5674,42 +5674,42 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5736,16 +5736,16 @@
         <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T57" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -5767,52 +5767,52 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>hand</t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5822,23 +5822,23 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q58" t="n">
         <v>6</v>
       </c>
       <c r="R58" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" t="n">
         <v>2</v>
       </c>
-      <c r="S58" t="n">
-        <v>8</v>
-      </c>
       <c r="T58" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="U58" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -5860,47 +5860,47 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5910,28 +5910,28 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q59" t="n">
         <v>7</v>
       </c>
       <c r="R59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U59" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5953,47 +5953,47 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
+          <t>ball</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
           <t>chair</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>jacket</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6003,28 +6003,28 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q60" t="n">
         <v>8</v>
       </c>
       <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
         <v>4</v>
       </c>
-      <c r="S60" t="n">
-        <v>10</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2</v>
-      </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -6046,27 +6046,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6081,12 +6081,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6096,19 +6096,19 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q61" t="n">
         <v>9</v>
       </c>
       <c r="R61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
         <v>3</v>
@@ -6117,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="U61" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -6139,22 +6139,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6164,22 +6164,22 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q62" t="n">
@@ -6204,13 +6204,13 @@
         <v>3</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -6232,42 +6232,42 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>hammer</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>ball</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>flower</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>jacket</t>
-        </is>
-      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6294,16 +6294,16 @@
         <v>11</v>
       </c>
       <c r="R63" t="n">
+        <v>8</v>
+      </c>
+      <c r="S63" t="n">
+        <v>7</v>
+      </c>
+      <c r="T63" t="n">
         <v>1</v>
       </c>
-      <c r="S63" t="n">
-        <v>6</v>
-      </c>
-      <c r="T63" t="n">
-        <v>10</v>
-      </c>
       <c r="U63" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -6325,42 +6325,42 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -6370,12 +6370,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6387,16 +6387,16 @@
         <v>12</v>
       </c>
       <c r="R64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T64" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="U64" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -6418,78 +6418,78 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q65" t="n">
         <v>13</v>
       </c>
       <c r="R65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T65" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U65" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -6511,42 +6511,42 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -6556,12 +6556,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -6573,16 +6573,16 @@
         <v>14</v>
       </c>
       <c r="R66" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S66" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U66" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -6604,47 +6604,47 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6654,28 +6654,28 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q67" t="n">
         <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S67" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U67" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -6697,47 +6697,47 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/key/key_05.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>key</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6747,28 +6747,28 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q68" t="n">
         <v>3</v>
       </c>
       <c r="R68" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T68" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U68" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -6790,42 +6790,42 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -6835,12 +6835,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -6852,16 +6852,16 @@
         <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -6883,42 +6883,42 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6928,12 +6928,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -6945,16 +6945,16 @@
         <v>5</v>
       </c>
       <c r="R70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -6976,78 +6976,78 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>bicycle</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>hand</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="Q71" t="n">
         <v>6</v>
       </c>
       <c r="R71" t="n">
+        <v>6</v>
+      </c>
+      <c r="S71" t="n">
         <v>2</v>
       </c>
-      <c r="S71" t="n">
-        <v>8</v>
-      </c>
       <c r="T71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U71" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -7069,42 +7069,42 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>house</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -7114,12 +7114,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7131,16 +7131,16 @@
         <v>7</v>
       </c>
       <c r="R72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="U72" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -7162,42 +7162,42 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>jacket</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>hammer</t>
-        </is>
-      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -7224,16 +7224,16 @@
         <v>8</v>
       </c>
       <c r="R73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="n">
         <v>10</v>
       </c>
-      <c r="T73" t="n">
-        <v>7</v>
-      </c>
       <c r="U73" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -7255,27 +7255,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -7285,48 +7285,48 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>center</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="Q74" t="n">
         <v>9</v>
       </c>
       <c r="R74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
         <v>3</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U74" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -7348,22 +7348,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7373,17 +7373,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7413,13 +7413,13 @@
         <v>3</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U75" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -7441,78 +7441,78 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>house</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>left</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>center</t>
         </is>
       </c>
       <c r="Q76" t="n">
         <v>11</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U76" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -7534,42 +7534,42 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -7596,16 +7596,16 @@
         <v>12</v>
       </c>
       <c r="R77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T77" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U77" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -7627,42 +7627,42 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>stimuli/plane/plane_31.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/phone/phone_01.jpg</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>house</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -7689,16 +7689,16 @@
         <v>13</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T78" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -7720,42 +7720,42 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>stimuli/book/book_27.jpg</t>
+          <t>stimuli/fish/fish_29.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>stimuli/candle/candle_38.jpg</t>
+          <t>stimuli/lamp/lamp_02.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>stimuli/bed/bed_34.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>candle</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -7782,16 +7782,16 @@
         <v>14</v>
       </c>
       <c r="R79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S79" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T79" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
